--- a/1° Sprint/exercício 1.xlsx
+++ b/1° Sprint/exercício 1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Requisito Funiconal</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>Ao voltar para a lista de produtos, ela deve estar disponível para o usuário sem fazer uma nova requisição à API</t>
+  </si>
+  <si>
+    <t>Lista de produto</t>
+  </si>
+  <si>
+    <t>Caso o playload</t>
   </si>
 </sst>
 </file>
@@ -75,7 +81,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -94,8 +100,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -118,11 +130,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -135,6 +160,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,39 +475,52 @@
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
